--- a/tables/Examine.xlsx
+++ b/tables/Examine.xlsx
@@ -583,7 +583,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,7 +629,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>

--- a/tables/Examine.xlsx
+++ b/tables/Examine.xlsx
@@ -15,11 +15,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -41,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>考验类型：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>examType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -57,18 +54,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>attackEffect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>考验影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>e</t>
     </r>
@@ -226,6 +215,64 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>考验类型：0速度，1力量，2神志，3知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击影响：0速度，1力量，2神志，3知识，4物理，5精神，6骰子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_0_0_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_0_0_0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_0_0_0|2_1_3_-1|2_0_0_-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_0_0_0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考验影响：7窥视牌库，选一张，洗牌，置顶；8可以使用面具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_4_999_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,11 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,16 +645,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -615,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -638,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -655,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -672,10 +719,61 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Examine.xlsx
+++ b/tables/Examine.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -146,8 +145,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>1</t>
+    <t>考验类型：0速度，1力量，2神志，3知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击影响：0速度，1力量，2神志，3知识，4物理，5精神，6骰子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_0_0_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -158,13 +169,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_0_3_2|1_3_999_1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>_0_0_0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_0_0_0|2_1_3_-1|2_0_0_-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -175,7 +190,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_0_3_2|1_3_999_2</t>
+      <t>_0_0_0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考验影响：7窥视牌库，选一张，洗牌，置顶；8可以使用面具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_4_999_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_0_3_-2|1_4_999_-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1_0_3_-2|1_4_999_-2</t>
     </r>
     <r>
       <rPr>
@@ -188,90 +221,10 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_0_3_2|1_3_999_3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>考验类型：0速度，1力量，2神志，3知识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击影响：0速度，1力量，2神志，3知识，4物理，5精神，6骰子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_0_0_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_0_0_0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7_0_0_0|2_1_3_-1|2_0_0_-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_0_0_0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考验影响：7窥视牌库，选一张，洗牌，置顶；8可以使用面具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7_4_999_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_0_1_0|2_2_4_2|2_5_999_4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +583,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,16 +598,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -688,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -705,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -722,7 +675,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -736,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -753,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -770,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
